--- a/storage/app/public/tes_data.xlsx
+++ b/storage/app/public/tes_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\dashboard\storage\app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F68F27-3662-430C-BF46-3252385358E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE7F03A3-07B3-4B50-8675-F683D1829160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIG DATA" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5617" uniqueCount="820">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="820">
   <si>
     <t>No.</t>
   </si>
@@ -2890,8 +2890,8 @@
   </sheetPr>
   <dimension ref="A1:N993"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/storage/app/public/tes_data.xlsx
+++ b/storage/app/public/tes_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Your team Dropbox\KANZA AZ\PC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\dashboard\storage\app\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378A34F9-308B-42F1-B276-91E1DD284F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2724B1AF-DDF2-4D72-9D09-02E0D8E4CD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIG DATA" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="820">
   <si>
     <t>No.</t>
   </si>
@@ -2480,6 +2480,9 @@
   </si>
   <si>
     <t>Kota</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
   </si>
 </sst>
 </file>
@@ -2887,29 +2890,29 @@
   </sheetPr>
   <dimension ref="A1:N993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L302" sqref="L302"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="67.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="41.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="67.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="49.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="49.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -2997,7 +3000,7 @@
         <v>81369098900</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>85266222444</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -3129,7 +3132,7 @@
         <v>85782712657</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -3173,7 +3176,7 @@
         <v>6281370000000</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -3217,7 +3220,7 @@
         <v>87899765070</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>82280525012</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -3305,7 +3308,7 @@
         <v>8986483984</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3349,7 +3352,7 @@
         <v>85233132859</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -3393,7 +3396,7 @@
         <v>8992279737</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3437,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -3481,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3525,7 +3528,7 @@
         <v>81330472250</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -3569,7 +3572,7 @@
         <v>81376530275</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>16</v>
       </c>
@@ -3657,7 +3660,7 @@
         <v>81278755353</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3701,7 +3704,7 @@
         <v>81369312886</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>18</v>
       </c>
@@ -3745,7 +3748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3789,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>20</v>
       </c>
@@ -3833,7 +3836,7 @@
         <v>82280013002</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -3877,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>22</v>
       </c>
@@ -3921,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -3965,7 +3968,7 @@
         <v>82177505261</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <v>24</v>
       </c>
@@ -4009,7 +4012,7 @@
         <v>85384447070</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <v>25</v>
       </c>
@@ -4053,7 +4056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <v>26</v>
       </c>
@@ -4097,7 +4100,7 @@
         <v>85764756246</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <v>27</v>
       </c>
@@ -4141,7 +4144,7 @@
         <v>85268233323</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <v>28</v>
       </c>
@@ -4185,7 +4188,7 @@
         <v>82183330604</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>81221114884</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <v>30</v>
       </c>
@@ -4273,7 +4276,7 @@
         <v>81274684034</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4317,7 +4320,7 @@
         <v>81278177256</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <v>32</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4405,7 +4408,7 @@
         <v>85155323211</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <v>34</v>
       </c>
@@ -4449,7 +4452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>81278470045</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <v>36</v>
       </c>
@@ -4537,7 +4540,7 @@
         <v>85366485518</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -4581,7 +4584,7 @@
         <v>81271500400</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <v>38</v>
       </c>
@@ -4625,7 +4628,7 @@
         <v>81374024327</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <v>39</v>
       </c>
@@ -4669,7 +4672,7 @@
         <v>628117000000</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <v>40</v>
       </c>
@@ -4713,7 +4716,7 @@
         <v>81265164092</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <v>41</v>
       </c>
@@ -4757,7 +4760,7 @@
         <v>87788543530</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <v>42</v>
       </c>
@@ -4801,7 +4804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <v>43</v>
       </c>
@@ -4845,7 +4848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <v>44</v>
       </c>
@@ -4889,7 +4892,7 @@
         <v>6282380000000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <v>45</v>
       </c>
@@ -4933,7 +4936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <v>46</v>
       </c>
@@ -4977,7 +4980,7 @@
         <v>8117310265</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <v>47</v>
       </c>
@@ -5021,7 +5024,7 @@
         <v>81211363163</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <v>48</v>
       </c>
@@ -5065,7 +5068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <v>49</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="5">
         <v>50</v>
       </c>
@@ -5153,7 +5156,7 @@
         <v>8127465077</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="5">
         <v>51</v>
       </c>
@@ -5197,7 +5200,7 @@
         <v>85276320111</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="5">
         <v>52</v>
       </c>
@@ -5241,7 +5244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="5">
         <v>53</v>
       </c>
@@ -5285,7 +5288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="5">
         <v>54</v>
       </c>
@@ -5329,7 +5332,7 @@
         <v>81234557636</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="5">
         <v>55</v>
       </c>
@@ -5373,7 +5376,7 @@
         <v>82154692471</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="5">
         <v>56</v>
       </c>
@@ -5417,7 +5420,7 @@
         <v>85269133090</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="5">
         <v>57</v>
       </c>
@@ -5461,7 +5464,7 @@
         <v>81279156900</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="5">
         <v>58</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>85262929273</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="5">
         <v>59</v>
       </c>
@@ -5549,7 +5552,7 @@
         <v>811864077</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="5">
         <v>60</v>
       </c>
@@ -5593,7 +5596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="5">
         <v>61</v>
       </c>
@@ -5637,7 +5640,7 @@
         <v>82186607959</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="5">
         <v>62</v>
       </c>
@@ -5681,7 +5684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="5">
         <v>63</v>
       </c>
@@ -5725,7 +5728,7 @@
         <v>81260996080</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="5">
         <v>64</v>
       </c>
@@ -5769,7 +5772,7 @@
         <v>85269803702</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="5">
         <v>65</v>
       </c>
@@ -5813,7 +5816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="5">
         <v>66</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="5">
         <v>67</v>
       </c>
@@ -5901,7 +5904,7 @@
         <v>82284126390</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="5">
         <v>68</v>
       </c>
@@ -5945,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="5">
         <v>69</v>
       </c>
@@ -5989,7 +5992,7 @@
         <v>81212736663</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="5">
         <v>70</v>
       </c>
@@ -6033,7 +6036,7 @@
         <v>81278261344</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5">
         <v>71</v>
       </c>
@@ -6077,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="5">
         <v>72</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>32504</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>209</v>
@@ -6121,7 +6124,7 @@
         <v>82376011527</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="5">
         <v>73</v>
       </c>
@@ -6156,7 +6159,7 @@
         <v>33267</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>211</v>
@@ -6165,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="5">
         <v>74</v>
       </c>
@@ -6200,7 +6203,7 @@
         <v>34511</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>213</v>
@@ -6209,7 +6212,7 @@
         <v>81271362563</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="5">
         <v>75</v>
       </c>
@@ -6244,7 +6247,7 @@
         <v>34583</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>215</v>
@@ -6253,7 +6256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="5">
         <v>76</v>
       </c>
@@ -6288,7 +6291,7 @@
         <v>32751</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>217</v>
@@ -6297,7 +6300,7 @@
         <v>85692972542</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="5">
         <v>77</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>31413</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>219</v>
@@ -6341,7 +6344,7 @@
         <v>8175425650</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="5">
         <v>78</v>
       </c>
@@ -6376,7 +6379,7 @@
         <v>30421</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>221</v>
@@ -6385,7 +6388,7 @@
         <v>811724443</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="5">
         <v>79</v>
       </c>
@@ -6420,7 +6423,7 @@
         <v>26979</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>224</v>
@@ -6429,7 +6432,7 @@
         <v>81575074004</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="5">
         <v>80</v>
       </c>
@@ -6464,7 +6467,7 @@
         <v>33841</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>226</v>
@@ -6473,7 +6476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="5">
         <v>81</v>
       </c>
@@ -6508,7 +6511,7 @@
         <v>33534</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>228</v>
@@ -6517,7 +6520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="5">
         <v>82</v>
       </c>
@@ -6552,7 +6555,7 @@
         <v>34350</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>230</v>
@@ -6561,7 +6564,7 @@
         <v>81882835468</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="5">
         <v>83</v>
       </c>
@@ -6596,7 +6599,7 @@
         <v>34349</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>232</v>
@@ -6605,7 +6608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="5">
         <v>84</v>
       </c>
@@ -6640,7 +6643,7 @@
         <v>32402</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>234</v>
@@ -6649,7 +6652,7 @@
         <v>81365546463</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="5">
         <v>85</v>
       </c>
@@ -6684,7 +6687,7 @@
         <v>34486</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>236</v>
@@ -6693,7 +6696,7 @@
         <v>82175690392</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="5">
         <v>86</v>
       </c>
@@ -6728,7 +6731,7 @@
         <v>34066</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>238</v>
@@ -6737,7 +6740,7 @@
         <v>85279560179</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="5">
         <v>87</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>33035</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>240</v>
@@ -6781,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5">
         <v>88</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>34475</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>242</v>
@@ -6825,7 +6828,7 @@
         <v>82247242808</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="5">
         <v>89</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>33023</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>246</v>
@@ -6869,7 +6872,7 @@
         <v>85758987887</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5">
         <v>90</v>
       </c>
@@ -6904,7 +6907,7 @@
         <v>33080</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>249</v>
@@ -6913,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="5">
         <v>91</v>
       </c>
@@ -6948,7 +6951,7 @@
         <v>33336</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>251</v>
@@ -6957,7 +6960,7 @@
         <v>81361923645</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="5">
         <v>92</v>
       </c>
@@ -6992,7 +6995,7 @@
         <v>32757</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>253</v>
@@ -7001,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5">
         <v>93</v>
       </c>
@@ -7036,7 +7039,7 @@
         <v>34060</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>255</v>
@@ -7045,7 +7048,7 @@
         <v>85267606995</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="5">
         <v>94</v>
       </c>
@@ -7080,7 +7083,7 @@
         <v>33448</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>257</v>
@@ -7089,7 +7092,7 @@
         <v>89686816747</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5">
         <v>95</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>32567</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>259</v>
@@ -7133,7 +7136,7 @@
         <v>81227349888</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="5">
         <v>96</v>
       </c>
@@ -7168,7 +7171,7 @@
         <v>27674</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>261</v>
@@ -7177,7 +7180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="5">
         <v>97</v>
       </c>
@@ -7212,7 +7215,7 @@
         <v>28473</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>263</v>
@@ -7221,7 +7224,7 @@
         <v>81273991608</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="5">
         <v>98</v>
       </c>
@@ -7256,7 +7259,7 @@
         <v>28906</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>265</v>
@@ -7265,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="5">
         <v>99</v>
       </c>
@@ -7300,7 +7303,7 @@
         <v>32967</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>267</v>
@@ -7309,7 +7312,7 @@
         <v>82373789093</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="5">
         <v>100</v>
       </c>
@@ -7344,7 +7347,7 @@
         <v>33827</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>269</v>
@@ -7353,7 +7356,7 @@
         <v>85369242802</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="5">
         <v>101</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>33008</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M102" s="1" t="s">
         <v>271</v>
@@ -7397,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="5">
         <v>102</v>
       </c>
@@ -7432,7 +7435,7 @@
         <v>33644</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>273</v>
@@ -7441,7 +7444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="5">
         <v>103</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>31023</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>275</v>
@@ -7485,7 +7488,7 @@
         <v>85363053344</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="5">
         <v>104</v>
       </c>
@@ -7520,7 +7523,7 @@
         <v>33502</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>277</v>
@@ -7529,7 +7532,7 @@
         <v>81278926783</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="5">
         <v>105</v>
       </c>
@@ -7564,7 +7567,7 @@
         <v>33486</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>280</v>
@@ -7573,7 +7576,7 @@
         <v>81373533020</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="5">
         <v>106</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>33013</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M107" s="1" t="s">
         <v>282</v>
@@ -7617,7 +7620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="5">
         <v>107</v>
       </c>
@@ -7652,7 +7655,7 @@
         <v>34259</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>286</v>
@@ -7661,7 +7664,7 @@
         <v>85664363111</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="5">
         <v>108</v>
       </c>
@@ -7696,7 +7699,7 @@
         <v>33655</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>288</v>
@@ -7705,7 +7708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="5">
         <v>109</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>33438</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>290</v>
@@ -7749,7 +7752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="5">
         <v>110</v>
       </c>
@@ -7784,7 +7787,7 @@
         <v>32878</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M111" s="1" t="s">
         <v>292</v>
@@ -7793,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="5">
         <v>111</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>34952</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>294</v>
@@ -7837,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="5">
         <v>112</v>
       </c>
@@ -7872,7 +7875,7 @@
         <v>30982</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>296</v>
@@ -7881,7 +7884,7 @@
         <v>81363772246</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="5">
         <v>113</v>
       </c>
@@ -7916,7 +7919,7 @@
         <v>31545</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>298</v>
@@ -7925,7 +7928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="5">
         <v>114</v>
       </c>
@@ -7960,7 +7963,7 @@
         <v>28395</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>300</v>
@@ -7969,7 +7972,7 @@
         <v>8117302709</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="5">
         <v>115</v>
       </c>
@@ -8004,7 +8007,7 @@
         <v>30813</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>302</v>
@@ -8013,7 +8016,7 @@
         <v>8126381518</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="5">
         <v>116</v>
       </c>
@@ -8048,7 +8051,7 @@
         <v>33666</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>304</v>
@@ -8057,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="5">
         <v>117</v>
       </c>
@@ -8092,7 +8095,7 @@
         <v>33983</v>
       </c>
       <c r="L118" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>306</v>
@@ -8101,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="5">
         <v>118</v>
       </c>
@@ -8136,7 +8139,7 @@
         <v>26403</v>
       </c>
       <c r="L119" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>308</v>
@@ -8145,7 +8148,7 @@
         <v>81379064222</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="5">
         <v>119</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>33994</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>310</v>
@@ -8189,7 +8192,7 @@
         <v>81367674847</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="5">
         <v>120</v>
       </c>
@@ -8224,7 +8227,7 @@
         <v>33639</v>
       </c>
       <c r="L121" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>312</v>
@@ -8233,7 +8236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="5">
         <v>121</v>
       </c>
@@ -8268,7 +8271,7 @@
         <v>34784</v>
       </c>
       <c r="L122" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>314</v>
@@ -8277,7 +8280,7 @@
         <v>8997483852</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="5">
         <v>122</v>
       </c>
@@ -8312,7 +8315,7 @@
         <v>32438</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>316</v>
@@ -8321,7 +8324,7 @@
         <v>81994555269</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="5">
         <v>123</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>31937</v>
       </c>
       <c r="L124" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M124" s="1" t="s">
         <v>318</v>
@@ -8365,7 +8368,7 @@
         <v>81373658081</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="5">
         <v>124</v>
       </c>
@@ -8397,7 +8400,7 @@
         <v>30497</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M125" s="1" t="s">
         <v>323</v>
@@ -8406,7 +8409,7 @@
         <v>8127884097</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="5">
         <v>125</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>31644</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M126" s="1" t="s">
         <v>326</v>
@@ -8450,7 +8453,7 @@
         <v>81269004645</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="5">
         <v>126</v>
       </c>
@@ -8485,7 +8488,7 @@
         <v>26561</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M127" s="1" t="s">
         <v>329</v>
@@ -8494,7 +8497,7 @@
         <v>81368179040</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="5">
         <v>127</v>
       </c>
@@ -8529,7 +8532,7 @@
         <v>31450</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>332</v>
@@ -8538,7 +8541,7 @@
         <v>82285902819</v>
       </c>
     </row>
-    <row r="129" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="5">
         <v>128</v>
       </c>
@@ -8573,7 +8576,7 @@
         <v>33696</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>334</v>
@@ -8582,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="5">
         <v>129</v>
       </c>
@@ -8617,7 +8620,7 @@
         <v>26505</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M130" s="1" t="s">
         <v>337</v>
@@ -8626,7 +8629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="5">
         <v>130</v>
       </c>
@@ -8661,7 +8664,7 @@
         <v>25913</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>339</v>
@@ -8670,7 +8673,7 @@
         <v>81279797135</v>
       </c>
     </row>
-    <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="5">
         <v>131</v>
       </c>
@@ -8705,7 +8708,7 @@
         <v>32380</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M132" s="1" t="s">
         <v>342</v>
@@ -8714,7 +8717,7 @@
         <v>81367542039</v>
       </c>
     </row>
-    <row r="133" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="5">
         <v>132</v>
       </c>
@@ -8749,7 +8752,7 @@
         <v>32021</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M133" s="1" t="s">
         <v>344</v>
@@ -8758,7 +8761,7 @@
         <v>81271432100</v>
       </c>
     </row>
-    <row r="134" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="5">
         <v>133</v>
       </c>
@@ -8793,7 +8796,7 @@
         <v>32837</v>
       </c>
       <c r="L134" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>346</v>
@@ -8802,7 +8805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="5">
         <v>134</v>
       </c>
@@ -8837,7 +8840,7 @@
         <v>33689</v>
       </c>
       <c r="L135" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M135" s="1" t="s">
         <v>348</v>
@@ -8846,7 +8849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="5">
         <v>135</v>
       </c>
@@ -8881,7 +8884,7 @@
         <v>33168</v>
       </c>
       <c r="L136" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M136" s="1" t="s">
         <v>351</v>
@@ -8890,7 +8893,7 @@
         <v>82133091010</v>
       </c>
     </row>
-    <row r="137" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="5">
         <v>136</v>
       </c>
@@ -8925,7 +8928,7 @@
         <v>34301</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>353</v>
@@ -8934,7 +8937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="5">
         <v>137</v>
       </c>
@@ -8969,7 +8972,7 @@
         <v>33358</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>355</v>
@@ -8978,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="5">
         <v>138</v>
       </c>
@@ -9013,7 +9016,7 @@
         <v>35120</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M139" s="1" t="s">
         <v>357</v>
@@ -9022,7 +9025,7 @@
         <v>8992356967</v>
       </c>
     </row>
-    <row r="140" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="5">
         <v>139</v>
       </c>
@@ -9057,7 +9060,7 @@
         <v>34020</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M140" s="1" t="s">
         <v>359</v>
@@ -9066,7 +9069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="5">
         <v>140</v>
       </c>
@@ -9101,7 +9104,7 @@
         <v>30938</v>
       </c>
       <c r="L141" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M141" s="1" t="s">
         <v>362</v>
@@ -9110,7 +9113,7 @@
         <v>8127331415</v>
       </c>
     </row>
-    <row r="142" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="5">
         <v>141</v>
       </c>
@@ -9145,7 +9148,7 @@
         <v>28218</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>365</v>
@@ -9154,7 +9157,7 @@
         <v>8114408247</v>
       </c>
     </row>
-    <row r="143" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="5">
         <v>142</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>25626</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>369</v>
@@ -9198,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="5">
         <v>143</v>
       </c>
@@ -9233,7 +9236,7 @@
         <v>25180</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>372</v>
@@ -9242,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="5">
         <v>144</v>
       </c>
@@ -9277,7 +9280,7 @@
         <v>25664</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M145" s="1" t="s">
         <v>375</v>
@@ -9286,7 +9289,7 @@
         <v>81277589789</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="5">
         <v>145</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>32302</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>378</v>
@@ -9330,7 +9333,7 @@
         <v>85268080168</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="5">
         <v>146</v>
       </c>
@@ -9365,7 +9368,7 @@
         <v>31544</v>
       </c>
       <c r="L147" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>381</v>
@@ -9374,7 +9377,7 @@
         <v>85267204649</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="5">
         <v>147</v>
       </c>
@@ -9409,7 +9412,7 @@
         <v>34916</v>
       </c>
       <c r="L148" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M148" s="1" t="s">
         <v>384</v>
@@ -9418,7 +9421,7 @@
         <v>6281210000000</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="5">
         <v>148</v>
       </c>
@@ -9453,7 +9456,7 @@
         <v>33734</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M149" s="1" t="s">
         <v>386</v>
@@ -9462,7 +9465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="5">
         <v>149</v>
       </c>
@@ -9497,7 +9500,7 @@
         <v>34777</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M150" s="1" t="s">
         <v>389</v>
@@ -9506,7 +9509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="5">
         <v>150</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>31775</v>
       </c>
       <c r="L151" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M151" s="1" t="s">
         <v>391</v>
@@ -9550,7 +9553,7 @@
         <v>85176762986</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="5">
         <v>151</v>
       </c>
@@ -9585,7 +9588,7 @@
         <v>33902</v>
       </c>
       <c r="L152" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M152" s="1" t="s">
         <v>393</v>
@@ -9594,7 +9597,7 @@
         <v>81367307259</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="5">
         <v>152</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>25957</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M153" s="1" t="s">
         <v>395</v>
@@ -9638,7 +9641,7 @@
         <v>82184838333</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="5">
         <v>153</v>
       </c>
@@ -9673,7 +9676,7 @@
         <v>30040</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M154" s="1" t="s">
         <v>398</v>
@@ -9682,7 +9685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="5">
         <v>154</v>
       </c>
@@ -9717,7 +9720,7 @@
         <v>34569</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M155" s="1" t="s">
         <v>401</v>
@@ -9726,7 +9729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="5">
         <v>155</v>
       </c>
@@ -9761,7 +9764,7 @@
         <v>34002</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M156" s="1" t="s">
         <v>404</v>
@@ -9770,7 +9773,7 @@
         <v>82175420147</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="5">
         <v>156</v>
       </c>
@@ -9805,7 +9808,7 @@
         <v>32825</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M157" s="1" t="s">
         <v>407</v>
@@ -9814,7 +9817,7 @@
         <v>82390565643</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="5">
         <v>157</v>
       </c>
@@ -9849,7 +9852,7 @@
         <v>30735</v>
       </c>
       <c r="L158" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M158" s="1" t="s">
         <v>409</v>
@@ -9858,7 +9861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="5">
         <v>158</v>
       </c>
@@ -9893,7 +9896,7 @@
         <v>31006</v>
       </c>
       <c r="L159" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>412</v>
@@ -9902,7 +9905,7 @@
         <v>8114110021</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="5">
         <v>159</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>32858</v>
       </c>
       <c r="L160" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>416</v>
@@ -9946,7 +9949,7 @@
         <v>85215790416</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="5">
         <v>160</v>
       </c>
@@ -9981,7 +9984,7 @@
         <v>33559</v>
       </c>
       <c r="L161" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>418</v>
@@ -9990,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="5">
         <v>161</v>
       </c>
@@ -10025,7 +10028,7 @@
         <v>32621</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>420</v>
@@ -10034,7 +10037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="5">
         <v>162</v>
       </c>
@@ -10069,7 +10072,7 @@
         <v>33618</v>
       </c>
       <c r="L163" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M163" s="1" t="s">
         <v>422</v>
@@ -10078,7 +10081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="5">
         <v>163</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>33640</v>
       </c>
       <c r="L164" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M164" s="1" t="s">
         <v>424</v>
@@ -10122,7 +10125,7 @@
         <v>85297455592</v>
       </c>
     </row>
-    <row r="165" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="5">
         <v>164</v>
       </c>
@@ -10157,7 +10160,7 @@
         <v>34047</v>
       </c>
       <c r="L165" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M165" s="1" t="s">
         <v>426</v>
@@ -10166,7 +10169,7 @@
         <v>81273895555</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="5">
         <v>165</v>
       </c>
@@ -10201,7 +10204,7 @@
         <v>34818</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>428</v>
@@ -10210,7 +10213,7 @@
         <v>81377524473</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="5">
         <v>166</v>
       </c>
@@ -10245,7 +10248,7 @@
         <v>31405</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M167" s="1" t="s">
         <v>430</v>
@@ -10254,7 +10257,7 @@
         <v>6287830000000</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="5">
         <v>167</v>
       </c>
@@ -10289,7 +10292,7 @@
         <v>25618</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>432</v>
@@ -10298,7 +10301,7 @@
         <v>81377625202</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="5">
         <v>168</v>
       </c>
@@ -10333,7 +10336,7 @@
         <v>25983</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>434</v>
@@ -10342,7 +10345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="5">
         <v>169</v>
       </c>
@@ -10377,7 +10380,7 @@
         <v>30797</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M170" s="1" t="s">
         <v>436</v>
@@ -10386,7 +10389,7 @@
         <v>82148113016</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="5">
         <v>170</v>
       </c>
@@ -10421,7 +10424,7 @@
         <v>30542</v>
       </c>
       <c r="L171" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M171" s="1" t="s">
         <v>438</v>
@@ -10430,7 +10433,7 @@
         <v>81366307477</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="5">
         <v>171</v>
       </c>
@@ -10465,7 +10468,7 @@
         <v>35041</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>440</v>
@@ -10474,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="5">
         <v>172</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>35174</v>
       </c>
       <c r="L173" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M173" s="1" t="s">
         <v>442</v>
@@ -10518,7 +10521,7 @@
         <v>81293270850</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="5">
         <v>173</v>
       </c>
@@ -10553,7 +10556,7 @@
         <v>34601</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>444</v>
@@ -10562,7 +10565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="5">
         <v>174</v>
       </c>
@@ -10597,7 +10600,7 @@
         <v>33437</v>
       </c>
       <c r="L175" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M175" s="1" t="s">
         <v>446</v>
@@ -10606,7 +10609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="5">
         <v>175</v>
       </c>
@@ -10641,7 +10644,7 @@
         <v>33197</v>
       </c>
       <c r="L176" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M176" s="1" t="s">
         <v>449</v>
@@ -10650,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="5">
         <v>176</v>
       </c>
@@ -10685,7 +10688,7 @@
         <v>34098</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M177" s="1" t="s">
         <v>451</v>
@@ -10694,7 +10697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="5">
         <v>177</v>
       </c>
@@ -10729,7 +10732,7 @@
         <v>34028</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>453</v>
@@ -10738,7 +10741,7 @@
         <v>81368202992</v>
       </c>
     </row>
-    <row r="179" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="5">
         <v>178</v>
       </c>
@@ -10773,7 +10776,7 @@
         <v>32792</v>
       </c>
       <c r="L179" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M179" s="1" t="s">
         <v>457</v>
@@ -10782,7 +10785,7 @@
         <v>85267157591</v>
       </c>
     </row>
-    <row r="180" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="5">
         <v>179</v>
       </c>
@@ -10817,7 +10820,7 @@
         <v>33174</v>
       </c>
       <c r="L180" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M180" s="1" t="s">
         <v>459</v>
@@ -10826,7 +10829,7 @@
         <v>85267033777</v>
       </c>
     </row>
-    <row r="181" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="5">
         <v>180</v>
       </c>
@@ -10861,7 +10864,7 @@
         <v>33398</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M181" s="1" t="s">
         <v>462</v>
@@ -10870,7 +10873,7 @@
         <v>81272403167</v>
       </c>
     </row>
-    <row r="182" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="5">
         <v>181</v>
       </c>
@@ -10905,7 +10908,7 @@
         <v>34337</v>
       </c>
       <c r="L182" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M182" s="1" t="s">
         <v>464</v>
@@ -10914,7 +10917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="5">
         <v>182</v>
       </c>
@@ -10949,7 +10952,7 @@
         <v>33399</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>466</v>
@@ -10958,7 +10961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="5">
         <v>183</v>
       </c>
@@ -10993,7 +10996,7 @@
         <v>27667</v>
       </c>
       <c r="L184" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M184" s="1" t="s">
         <v>469</v>
@@ -11002,7 +11005,7 @@
         <v>8123537932</v>
       </c>
     </row>
-    <row r="185" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="5">
         <v>184</v>
       </c>
@@ -11037,7 +11040,7 @@
         <v>30732</v>
       </c>
       <c r="L185" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M185" s="1" t="s">
         <v>472</v>
@@ -11046,7 +11049,7 @@
         <v>8127873619</v>
       </c>
     </row>
-    <row r="186" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="5">
         <v>185</v>
       </c>
@@ -11081,7 +11084,7 @@
         <v>33553</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M186" s="1" t="s">
         <v>475</v>
@@ -11090,7 +11093,7 @@
         <v>81245825648</v>
       </c>
     </row>
-    <row r="187" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="5">
         <v>186</v>
       </c>
@@ -11125,7 +11128,7 @@
         <v>35043</v>
       </c>
       <c r="L187" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M187" s="1" t="s">
         <v>478</v>
@@ -11134,7 +11137,7 @@
         <v>81377668616</v>
       </c>
     </row>
-    <row r="188" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="5">
         <v>187</v>
       </c>
@@ -11169,7 +11172,7 @@
         <v>34263</v>
       </c>
       <c r="L188" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M188" s="1" t="s">
         <v>481</v>
@@ -11178,7 +11181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="5">
         <v>188</v>
       </c>
@@ -11213,7 +11216,7 @@
         <v>31588</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>484</v>
@@ -11222,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="5">
         <v>189</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>32923</v>
       </c>
       <c r="L190" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M190" s="1" t="s">
         <v>486</v>
@@ -11266,7 +11269,7 @@
         <v>85267436563</v>
       </c>
     </row>
-    <row r="191" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="5">
         <v>190</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>34467</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>489</v>
@@ -11310,7 +11313,7 @@
         <v>81251708517</v>
       </c>
     </row>
-    <row r="192" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="5">
         <v>191</v>
       </c>
@@ -11345,7 +11348,7 @@
         <v>34352</v>
       </c>
       <c r="L192" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M192" s="1" t="s">
         <v>492</v>
@@ -11354,7 +11357,7 @@
         <v>87897739714</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="5">
         <v>192</v>
       </c>
@@ -11389,7 +11392,7 @@
         <v>27653</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M193" s="1" t="s">
         <v>494</v>
@@ -11398,7 +11401,7 @@
         <v>81329259600</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="5">
         <v>193</v>
       </c>
@@ -11433,7 +11436,7 @@
         <v>31854</v>
       </c>
       <c r="L194" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M194" s="1" t="s">
         <v>496</v>
@@ -11442,7 +11445,7 @@
         <v>82113900060</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="5">
         <v>194</v>
       </c>
@@ -11477,7 +11480,7 @@
         <v>34270</v>
       </c>
       <c r="L195" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M195" s="1" t="s">
         <v>499</v>
@@ -11486,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="5">
         <v>195</v>
       </c>
@@ -11521,7 +11524,7 @@
         <v>32340</v>
       </c>
       <c r="L196" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>501</v>
@@ -11530,7 +11533,7 @@
         <v>81367148608</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="5">
         <v>196</v>
       </c>
@@ -11565,7 +11568,7 @@
         <v>30564</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M197" s="1" t="s">
         <v>504</v>
@@ -11574,7 +11577,7 @@
         <v>81388923231</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="5">
         <v>197</v>
       </c>
@@ -11609,7 +11612,7 @@
         <v>34597</v>
       </c>
       <c r="L198" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M198" s="1" t="s">
         <v>506</v>
@@ -11618,7 +11621,7 @@
         <v>81214163751</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="5">
         <v>198</v>
       </c>
@@ -11653,7 +11656,7 @@
         <v>29671</v>
       </c>
       <c r="L199" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M199" s="1" t="s">
         <v>508</v>
@@ -11662,7 +11665,7 @@
         <v>81271947377</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="5">
         <v>199</v>
       </c>
@@ -11697,7 +11700,7 @@
         <v>32457</v>
       </c>
       <c r="L200" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>511</v>
@@ -11706,7 +11709,7 @@
         <v>82283363220</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="5">
         <v>200</v>
       </c>
@@ -11741,7 +11744,7 @@
         <v>30097</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M201" s="1" t="s">
         <v>513</v>
@@ -11750,7 +11753,7 @@
         <v>81278156582</v>
       </c>
     </row>
-    <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="5">
         <v>201</v>
       </c>
@@ -11785,7 +11788,7 @@
         <v>32072</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M202" s="1" t="s">
         <v>515</v>
@@ -11794,7 +11797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="5">
         <v>202</v>
       </c>
@@ -11829,7 +11832,7 @@
         <v>30162</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M203" s="1" t="s">
         <v>518</v>
@@ -11838,7 +11841,7 @@
         <v>819686022</v>
       </c>
     </row>
-    <row r="204" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A204" s="5">
         <v>203</v>
       </c>
@@ -11873,7 +11876,7 @@
         <v>29768</v>
       </c>
       <c r="L204" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>520</v>
@@ -11882,7 +11885,7 @@
         <v>81317434734</v>
       </c>
     </row>
-    <row r="205" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A205" s="5">
         <v>204</v>
       </c>
@@ -11917,7 +11920,7 @@
         <v>30026</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M205" s="1" t="s">
         <v>522</v>
@@ -11926,7 +11929,7 @@
         <v>81332673296</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A206" s="5">
         <v>205</v>
       </c>
@@ -11961,7 +11964,7 @@
         <v>31895</v>
       </c>
       <c r="L206" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M206" s="1" t="s">
         <v>524</v>
@@ -11970,7 +11973,7 @@
         <v>85365940946</v>
       </c>
     </row>
-    <row r="207" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A207" s="5">
         <v>206</v>
       </c>
@@ -12005,7 +12008,7 @@
         <v>25059</v>
       </c>
       <c r="L207" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M207" s="1" t="s">
         <v>527</v>
@@ -12014,7 +12017,7 @@
         <v>81379362607</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A208" s="5">
         <v>207</v>
       </c>
@@ -12049,7 +12052,7 @@
         <v>29181</v>
       </c>
       <c r="L208" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M208" s="1" t="s">
         <v>530</v>
@@ -12058,7 +12061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A209" s="5">
         <v>208</v>
       </c>
@@ -12093,7 +12096,7 @@
         <v>28172</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>533</v>
@@ -12102,7 +12105,7 @@
         <v>82174991202</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A210" s="5">
         <v>209</v>
       </c>
@@ -12137,7 +12140,7 @@
         <v>27278</v>
       </c>
       <c r="L210" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M210" s="1" t="s">
         <v>536</v>
@@ -12146,7 +12149,7 @@
         <v>82122281942</v>
       </c>
     </row>
-    <row r="211" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A211" s="5">
         <v>210</v>
       </c>
@@ -12181,7 +12184,7 @@
         <v>29214</v>
       </c>
       <c r="L211" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M211" s="1" t="s">
         <v>539</v>
@@ -12190,7 +12193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A212" s="5">
         <v>211</v>
       </c>
@@ -12225,7 +12228,7 @@
         <v>33714</v>
       </c>
       <c r="L212" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>544</v>
@@ -12234,7 +12237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A213" s="5">
         <v>212</v>
       </c>
@@ -12269,7 +12272,7 @@
         <v>33621</v>
       </c>
       <c r="L213" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M213" s="1" t="s">
         <v>546</v>
@@ -12278,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A214" s="5">
         <v>213</v>
       </c>
@@ -12313,7 +12316,7 @@
         <v>33173</v>
       </c>
       <c r="L214" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>548</v>
@@ -12322,7 +12325,7 @@
         <v>8117101041</v>
       </c>
     </row>
-    <row r="215" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="5">
         <v>214</v>
       </c>
@@ -12357,7 +12360,7 @@
         <v>32013</v>
       </c>
       <c r="L215" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>551</v>
@@ -12366,7 +12369,7 @@
         <v>711441384</v>
       </c>
     </row>
-    <row r="216" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A216" s="5">
         <v>215</v>
       </c>
@@ -12401,7 +12404,7 @@
         <v>28730</v>
       </c>
       <c r="L216" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M216" s="1" t="s">
         <v>554</v>
@@ -12410,7 +12413,7 @@
         <v>81367986723</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="5">
         <v>216</v>
       </c>
@@ -12445,7 +12448,7 @@
         <v>35219</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M217" s="1" t="s">
         <v>556</v>
@@ -12454,7 +12457,7 @@
         <v>81273913663</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A218" s="5">
         <v>217</v>
       </c>
@@ -12489,7 +12492,7 @@
         <v>33734</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M218" s="1" t="s">
         <v>559</v>
@@ -12498,7 +12501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A219" s="5">
         <v>218</v>
       </c>
@@ -12533,7 +12536,7 @@
         <v>33260</v>
       </c>
       <c r="L219" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>563</v>
@@ -12542,7 +12545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A220" s="5">
         <v>219</v>
       </c>
@@ -12577,7 +12580,7 @@
         <v>25201</v>
       </c>
       <c r="L220" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>565</v>
@@ -12586,7 +12589,7 @@
         <v>81210648965</v>
       </c>
     </row>
-    <row r="221" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A221" s="5">
         <v>220</v>
       </c>
@@ -12621,7 +12624,7 @@
         <v>30983</v>
       </c>
       <c r="L221" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M221" s="1" t="s">
         <v>567</v>
@@ -12630,7 +12633,7 @@
         <v>81278838160</v>
       </c>
     </row>
-    <row r="222" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A222" s="5">
         <v>221</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>34751</v>
       </c>
       <c r="L222" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>569</v>
@@ -12674,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A223" s="5">
         <v>222</v>
       </c>
@@ -12709,7 +12712,7 @@
         <v>34347</v>
       </c>
       <c r="L223" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M223" s="1" t="s">
         <v>571</v>
@@ -12718,7 +12721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A224" s="5">
         <v>223</v>
       </c>
@@ -12753,7 +12756,7 @@
         <v>32731</v>
       </c>
       <c r="L224" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M224" s="1" t="s">
         <v>575</v>
@@ -12762,7 +12765,7 @@
         <v>85297102033</v>
       </c>
     </row>
-    <row r="225" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A225" s="5">
         <v>224</v>
       </c>
@@ -12797,7 +12800,7 @@
         <v>34635</v>
       </c>
       <c r="L225" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M225" s="1" t="s">
         <v>577</v>
@@ -12806,7 +12809,7 @@
         <v>82242505613</v>
       </c>
     </row>
-    <row r="226" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A226" s="5">
         <v>225</v>
       </c>
@@ -12841,7 +12844,7 @@
         <v>28904</v>
       </c>
       <c r="L226" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M226" s="1" t="s">
         <v>579</v>
@@ -12850,7 +12853,7 @@
         <v>81347347325</v>
       </c>
     </row>
-    <row r="227" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="5">
         <v>226</v>
       </c>
@@ -12885,7 +12888,7 @@
         <v>31952</v>
       </c>
       <c r="L227" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M227" s="1" t="s">
         <v>581</v>
@@ -12894,7 +12897,7 @@
         <v>81271507571</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A228" s="5">
         <v>227</v>
       </c>
@@ -12929,7 +12932,7 @@
         <v>30340</v>
       </c>
       <c r="L228" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M228" s="1" t="s">
         <v>583</v>
@@ -12938,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="5">
         <v>228</v>
       </c>
@@ -12973,7 +12976,7 @@
         <v>33796</v>
       </c>
       <c r="L229" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>587</v>
@@ -12982,7 +12985,7 @@
         <v>811736692</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A230" s="5">
         <v>229</v>
       </c>
@@ -13017,7 +13020,7 @@
         <v>34853</v>
       </c>
       <c r="L230" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M230" s="1" t="s">
         <v>589</v>
@@ -13026,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A231" s="5">
         <v>230</v>
       </c>
@@ -13061,7 +13064,7 @@
         <v>28564</v>
       </c>
       <c r="L231" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>591</v>
@@ -13070,7 +13073,7 @@
         <v>811730683</v>
       </c>
     </row>
-    <row r="232" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A232" s="5">
         <v>231</v>
       </c>
@@ -13105,7 +13108,7 @@
         <v>27253</v>
       </c>
       <c r="L232" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M232" s="1" t="s">
         <v>593</v>
@@ -13114,7 +13117,7 @@
         <v>85268353700</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="5">
         <v>232</v>
       </c>
@@ -13149,7 +13152,7 @@
         <v>33747</v>
       </c>
       <c r="L233" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>595</v>
@@ -13158,7 +13161,7 @@
         <v>8117597774</v>
       </c>
     </row>
-    <row r="234" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A234" s="5">
         <v>233</v>
       </c>
@@ -13193,7 +13196,7 @@
         <v>33359</v>
       </c>
       <c r="L234" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M234" s="1" t="s">
         <v>599</v>
@@ -13202,7 +13205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A235" s="5">
         <v>234</v>
       </c>
@@ -13237,7 +13240,7 @@
         <v>34028</v>
       </c>
       <c r="L235" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M235" s="1" t="s">
         <v>601</v>
@@ -13246,7 +13249,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="236" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A236" s="5">
         <v>235</v>
       </c>
@@ -13281,7 +13284,7 @@
         <v>26160</v>
       </c>
       <c r="L236" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>603</v>
@@ -13290,7 +13293,7 @@
         <v>8127347475</v>
       </c>
     </row>
-    <row r="237" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A237" s="5">
         <v>236</v>
       </c>
@@ -13325,7 +13328,7 @@
         <v>27962</v>
       </c>
       <c r="L237" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M237" s="1" t="s">
         <v>605</v>
@@ -13334,7 +13337,7 @@
         <v>81379392405</v>
       </c>
     </row>
-    <row r="238" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A238" s="5">
         <v>237</v>
       </c>
@@ -13369,7 +13372,7 @@
         <v>29543</v>
       </c>
       <c r="L238" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M238" s="1" t="s">
         <v>607</v>
@@ -13378,7 +13381,7 @@
         <v>8127834264</v>
       </c>
     </row>
-    <row r="239" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A239" s="5">
         <v>238</v>
       </c>
@@ -13413,7 +13416,7 @@
         <v>32627</v>
       </c>
       <c r="L239" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M239" s="1" t="s">
         <v>611</v>
@@ -13422,7 +13425,7 @@
         <v>85267799963</v>
       </c>
     </row>
-    <row r="240" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A240" s="5">
         <v>239</v>
       </c>
@@ -13457,7 +13460,7 @@
         <v>34003</v>
       </c>
       <c r="L240" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>613</v>
@@ -13466,7 +13469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A241" s="5">
         <v>240</v>
       </c>
@@ -13501,7 +13504,7 @@
         <v>26112</v>
       </c>
       <c r="L241" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>615</v>
@@ -13510,7 +13513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A242" s="5">
         <v>241</v>
       </c>
@@ -13545,7 +13548,7 @@
         <v>33373</v>
       </c>
       <c r="L242" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>617</v>
@@ -13554,7 +13557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A243" s="5">
         <v>242</v>
       </c>
@@ -13589,7 +13592,7 @@
         <v>34678</v>
       </c>
       <c r="L243" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M243" s="1" t="s">
         <v>619</v>
@@ -13598,7 +13601,7 @@
         <v>82176524651</v>
       </c>
     </row>
-    <row r="244" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A244" s="5">
         <v>243</v>
       </c>
@@ -13633,7 +13636,7 @@
         <v>33423</v>
       </c>
       <c r="L244" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>623</v>
@@ -13642,7 +13645,7 @@
         <v>81274357006</v>
       </c>
     </row>
-    <row r="245" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A245" s="5">
         <v>244</v>
       </c>
@@ -13677,7 +13680,7 @@
         <v>32906</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M245" s="1" t="s">
         <v>625</v>
@@ -13686,7 +13689,7 @@
         <v>85794283762</v>
       </c>
     </row>
-    <row r="246" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A246" s="5">
         <v>245</v>
       </c>
@@ -13721,7 +13724,7 @@
         <v>27195</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>627</v>
@@ -13730,7 +13733,7 @@
         <v>8561033274</v>
       </c>
     </row>
-    <row r="247" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A247" s="5">
         <v>246</v>
       </c>
@@ -13765,7 +13768,7 @@
         <v>34426</v>
       </c>
       <c r="L247" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M247" s="1" t="s">
         <v>629</v>
@@ -13774,7 +13777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A248" s="5">
         <v>247</v>
       </c>
@@ -13809,7 +13812,7 @@
         <v>34269</v>
       </c>
       <c r="L248" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M248" s="1" t="s">
         <v>631</v>
@@ -13818,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A249" s="5">
         <v>248</v>
       </c>
@@ -13853,7 +13856,7 @@
         <v>33533</v>
       </c>
       <c r="L249" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M249" s="1" t="s">
         <v>635</v>
@@ -13862,7 +13865,7 @@
         <v>82176523178</v>
       </c>
     </row>
-    <row r="250" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A250" s="5">
         <v>249</v>
       </c>
@@ -13897,7 +13900,7 @@
         <v>33709</v>
       </c>
       <c r="L250" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M250" s="1" t="s">
         <v>637</v>
@@ -13906,7 +13909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A251" s="5">
         <v>250</v>
       </c>
@@ -13941,7 +13944,7 @@
         <v>31654</v>
       </c>
       <c r="L251" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M251" s="1" t="s">
         <v>639</v>
@@ -13950,7 +13953,7 @@
         <v>82182525767</v>
       </c>
     </row>
-    <row r="252" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A252" s="5">
         <v>251</v>
       </c>
@@ -13985,7 +13988,7 @@
         <v>31847</v>
       </c>
       <c r="L252" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M252" s="1" t="s">
         <v>641</v>
@@ -13994,7 +13997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A253" s="5">
         <v>252</v>
       </c>
@@ -14029,7 +14032,7 @@
         <v>33272</v>
       </c>
       <c r="L253" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M253" s="1" t="s">
         <v>643</v>
@@ -14038,7 +14041,7 @@
         <v>82175960267</v>
       </c>
     </row>
-    <row r="254" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A254" s="5">
         <v>253</v>
       </c>
@@ -14073,7 +14076,7 @@
         <v>32534</v>
       </c>
       <c r="L254" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M254" s="1" t="s">
         <v>647</v>
@@ -14082,7 +14085,7 @@
         <v>8995400180</v>
       </c>
     </row>
-    <row r="255" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A255" s="5">
         <v>254</v>
       </c>
@@ -14117,7 +14120,7 @@
         <v>32576</v>
       </c>
       <c r="L255" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>649</v>
@@ -14126,7 +14129,7 @@
         <v>85664994490</v>
       </c>
     </row>
-    <row r="256" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A256" s="5">
         <v>255</v>
       </c>
@@ -14161,7 +14164,7 @@
         <v>33500</v>
       </c>
       <c r="L256" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>651</v>
@@ -14170,7 +14173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A257" s="5">
         <v>256</v>
       </c>
@@ -14205,7 +14208,7 @@
         <v>30952</v>
       </c>
       <c r="L257" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>653</v>
@@ -14214,7 +14217,7 @@
         <v>8116120927</v>
       </c>
     </row>
-    <row r="258" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A258" s="5">
         <v>257</v>
       </c>
@@ -14249,7 +14252,7 @@
         <v>34226</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M258" s="1" t="s">
         <v>655</v>
@@ -14258,7 +14261,7 @@
         <v>81266576227</v>
       </c>
     </row>
-    <row r="259" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A259" s="5">
         <v>258</v>
       </c>
@@ -14293,7 +14296,7 @@
         <v>33689</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>657</v>
@@ -14302,7 +14305,7 @@
         <v>82183995762</v>
       </c>
     </row>
-    <row r="260" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A260" s="5">
         <v>259</v>
       </c>
@@ -14337,7 +14340,7 @@
         <v>33064</v>
       </c>
       <c r="L260" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M260" s="1" t="s">
         <v>659</v>
@@ -14346,7 +14349,7 @@
         <v>82175123568</v>
       </c>
     </row>
-    <row r="261" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A261" s="5">
         <v>260</v>
       </c>
@@ -14381,7 +14384,7 @@
         <v>33163</v>
       </c>
       <c r="L261" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>663</v>
@@ -14390,7 +14393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A262" s="5">
         <v>261</v>
       </c>
@@ -14425,7 +14428,7 @@
         <v>34167</v>
       </c>
       <c r="L262" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M262" s="1" t="s">
         <v>665</v>
@@ -14434,7 +14437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A263" s="5">
         <v>262</v>
       </c>
@@ -14469,7 +14472,7 @@
         <v>26363</v>
       </c>
       <c r="L263" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M263" s="1" t="s">
         <v>667</v>
@@ -14478,7 +14481,7 @@
         <v>81274258972</v>
       </c>
     </row>
-    <row r="264" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A264" s="5">
         <v>263</v>
       </c>
@@ -14513,7 +14516,7 @@
         <v>27141</v>
       </c>
       <c r="L264" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M264" s="1" t="s">
         <v>669</v>
@@ -14522,7 +14525,7 @@
         <v>8127151861</v>
       </c>
     </row>
-    <row r="265" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A265" s="5">
         <v>264</v>
       </c>
@@ -14557,7 +14560,7 @@
         <v>32860</v>
       </c>
       <c r="L265" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M265" s="1" t="s">
         <v>671</v>
@@ -14566,7 +14569,7 @@
         <v>85739518634</v>
       </c>
     </row>
-    <row r="266" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A266" s="5">
         <v>265</v>
       </c>
@@ -14601,7 +14604,7 @@
         <v>33959</v>
       </c>
       <c r="L266" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M266" s="1" t="s">
         <v>675</v>
@@ -14610,7 +14613,7 @@
         <v>82281834953</v>
       </c>
     </row>
-    <row r="267" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A267" s="5">
         <v>266</v>
       </c>
@@ -14645,7 +14648,7 @@
         <v>32410</v>
       </c>
       <c r="L267" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M267" s="1" t="s">
         <v>677</v>
@@ -14654,7 +14657,7 @@
         <v>85268427654</v>
       </c>
     </row>
-    <row r="268" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A268" s="5">
         <v>267</v>
       </c>
@@ -14689,7 +14692,7 @@
         <v>30560</v>
       </c>
       <c r="L268" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M268" s="1" t="s">
         <v>679</v>
@@ -14698,7 +14701,7 @@
         <v>81377635777</v>
       </c>
     </row>
-    <row r="269" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A269" s="5">
         <v>268</v>
       </c>
@@ -14733,7 +14736,7 @@
         <v>32076</v>
       </c>
       <c r="L269" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M269" s="1" t="s">
         <v>681</v>
@@ -14742,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A270" s="5">
         <v>269</v>
       </c>
@@ -14777,7 +14780,7 @@
         <v>25991</v>
       </c>
       <c r="L270" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>683</v>
@@ -14786,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="5">
         <v>270</v>
       </c>
@@ -14821,7 +14824,7 @@
         <v>33991</v>
       </c>
       <c r="L271" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M271" s="1" t="s">
         <v>687</v>
@@ -14830,7 +14833,7 @@
         <v>81378366269</v>
       </c>
     </row>
-    <row r="272" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="5">
         <v>271</v>
       </c>
@@ -14865,7 +14868,7 @@
         <v>34353</v>
       </c>
       <c r="L272" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M272" s="1" t="s">
         <v>689</v>
@@ -14874,7 +14877,7 @@
         <v>82113951019</v>
       </c>
     </row>
-    <row r="273" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A273" s="5">
         <v>272</v>
       </c>
@@ -14909,7 +14912,7 @@
         <v>26992</v>
       </c>
       <c r="L273" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>691</v>
@@ -14918,7 +14921,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="274" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A274" s="5">
         <v>273</v>
       </c>
@@ -14953,7 +14956,7 @@
         <v>25916</v>
       </c>
       <c r="L274" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>693</v>
@@ -14962,7 +14965,7 @@
         <v>81994801029</v>
       </c>
     </row>
-    <row r="275" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A275" s="5">
         <v>274</v>
       </c>
@@ -14997,7 +15000,7 @@
         <v>32551</v>
       </c>
       <c r="L275" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>695</v>
@@ -15006,7 +15009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A276" s="5">
         <v>275</v>
       </c>
@@ -15041,7 +15044,7 @@
         <v>32000</v>
       </c>
       <c r="L276" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>699</v>
@@ -15050,7 +15053,7 @@
         <v>81278568783</v>
       </c>
     </row>
-    <row r="277" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A277" s="5">
         <v>276</v>
       </c>
@@ -15085,7 +15088,7 @@
         <v>32698</v>
       </c>
       <c r="L277" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M277" s="1" t="s">
         <v>701</v>
@@ -15094,7 +15097,7 @@
         <v>85268517703</v>
       </c>
     </row>
-    <row r="278" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A278" s="5">
         <v>277</v>
       </c>
@@ -15129,7 +15132,7 @@
         <v>26260</v>
       </c>
       <c r="L278" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M278" s="1" t="s">
         <v>703</v>
@@ -15138,7 +15141,7 @@
         <v>81271567651</v>
       </c>
     </row>
-    <row r="279" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A279" s="5">
         <v>278</v>
       </c>
@@ -15173,7 +15176,7 @@
         <v>33155</v>
       </c>
       <c r="L279" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M279" s="1" t="s">
         <v>705</v>
@@ -15182,7 +15185,7 @@
         <v>8127119231</v>
       </c>
     </row>
-    <row r="280" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A280" s="5">
         <v>279</v>
       </c>
@@ -15217,7 +15220,7 @@
         <v>33384</v>
       </c>
       <c r="L280" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>707</v>
@@ -15226,7 +15229,7 @@
         <v>8984913298</v>
       </c>
     </row>
-    <row r="281" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A281" s="5">
         <v>280</v>
       </c>
@@ -15261,7 +15264,7 @@
         <v>32386</v>
       </c>
       <c r="L281" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>711</v>
@@ -15270,7 +15273,7 @@
         <v>8117217462</v>
       </c>
     </row>
-    <row r="282" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A282" s="5">
         <v>281</v>
       </c>
@@ -15305,7 +15308,7 @@
         <v>33988</v>
       </c>
       <c r="L282" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M282" s="1" t="s">
         <v>713</v>
@@ -15314,7 +15317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A283" s="5">
         <v>282</v>
       </c>
@@ -15349,7 +15352,7 @@
         <v>28458</v>
       </c>
       <c r="L283" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M283" s="1" t="s">
         <v>715</v>
@@ -15358,7 +15361,7 @@
         <v>81929477444</v>
       </c>
     </row>
-    <row r="284" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A284" s="5">
         <v>283</v>
       </c>
@@ -15393,7 +15396,7 @@
         <v>29936</v>
       </c>
       <c r="L284" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>717</v>
@@ -15402,7 +15405,7 @@
         <v>81540984233</v>
       </c>
     </row>
-    <row r="285" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A285" s="5">
         <v>284</v>
       </c>
@@ -15437,7 +15440,7 @@
         <v>34305</v>
       </c>
       <c r="L285" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M285" s="1" t="s">
         <v>719</v>
@@ -15446,7 +15449,7 @@
         <v>82306585746</v>
       </c>
     </row>
-    <row r="286" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A286" s="5">
         <v>285</v>
       </c>
@@ -15481,7 +15484,7 @@
         <v>33651</v>
       </c>
       <c r="L286" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M286" s="1" t="s">
         <v>723</v>
@@ -15490,7 +15493,7 @@
         <v>81367226388</v>
       </c>
     </row>
-    <row r="287" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A287" s="5">
         <v>286</v>
       </c>
@@ -15525,7 +15528,7 @@
         <v>33583</v>
       </c>
       <c r="L287" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M287" s="1" t="s">
         <v>725</v>
@@ -15534,7 +15537,7 @@
         <v>81513055120</v>
       </c>
     </row>
-    <row r="288" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="5">
         <v>287</v>
       </c>
@@ -15569,7 +15572,7 @@
         <v>30705</v>
       </c>
       <c r="L288" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M288" s="1" t="s">
         <v>727</v>
@@ -15578,7 +15581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A289" s="5">
         <v>288</v>
       </c>
@@ -15613,7 +15616,7 @@
         <v>32090</v>
       </c>
       <c r="L289" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M289" s="1" t="s">
         <v>729</v>
@@ -15622,7 +15625,7 @@
         <v>81363361398</v>
       </c>
     </row>
-    <row r="290" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A290" s="5">
         <v>289</v>
       </c>
@@ -15657,7 +15660,7 @@
         <v>34457</v>
       </c>
       <c r="L290" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M290" s="1" t="s">
         <v>731</v>
@@ -15666,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A291" s="5">
         <v>290</v>
       </c>
@@ -15701,7 +15704,7 @@
         <v>34415</v>
       </c>
       <c r="L291" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M291" s="1" t="s">
         <v>735</v>
@@ -15710,7 +15713,7 @@
         <v>81271304112</v>
       </c>
     </row>
-    <row r="292" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A292" s="5">
         <v>291</v>
       </c>
@@ -15745,7 +15748,7 @@
         <v>33158</v>
       </c>
       <c r="L292" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M292" s="1" t="s">
         <v>737</v>
@@ -15754,7 +15757,7 @@
         <v>85767065421</v>
       </c>
     </row>
-    <row r="293" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A293" s="5">
         <v>292</v>
       </c>
@@ -15789,7 +15792,7 @@
         <v>30006</v>
       </c>
       <c r="L293" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M293" s="1" t="s">
         <v>739</v>
@@ -15798,7 +15801,7 @@
         <v>85266149530</v>
       </c>
     </row>
-    <row r="294" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A294" s="5">
         <v>293</v>
       </c>
@@ -15833,7 +15836,7 @@
         <v>32349</v>
       </c>
       <c r="L294" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M294" s="1" t="s">
         <v>741</v>
@@ -15842,7 +15845,7 @@
         <v>8117841387</v>
       </c>
     </row>
-    <row r="295" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A295" s="5">
         <v>294</v>
       </c>
@@ -15877,7 +15880,7 @@
         <v>34105</v>
       </c>
       <c r="L295" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M295" s="1" t="s">
         <v>743</v>
@@ -15886,7 +15889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A296" s="5">
         <v>295</v>
       </c>
@@ -15921,7 +15924,7 @@
         <v>34624</v>
       </c>
       <c r="L296" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M296" s="1" t="s">
         <v>747</v>
@@ -15930,7 +15933,7 @@
         <v>82289538455</v>
       </c>
     </row>
-    <row r="297" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A297" s="5">
         <v>296</v>
       </c>
@@ -15965,7 +15968,7 @@
         <v>33340</v>
       </c>
       <c r="L297" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M297" s="1" t="s">
         <v>749</v>
@@ -15974,7 +15977,7 @@
         <v>89631196196</v>
       </c>
     </row>
-    <row r="298" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A298" s="5">
         <v>297</v>
       </c>
@@ -16009,7 +16012,7 @@
         <v>32788</v>
       </c>
       <c r="L298" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M298" s="1" t="s">
         <v>751</v>
@@ -16018,7 +16021,7 @@
         <v>85669013205</v>
       </c>
     </row>
-    <row r="299" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A299" s="5">
         <v>298</v>
       </c>
@@ -16053,7 +16056,7 @@
         <v>33056</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M299" s="1" t="s">
         <v>753</v>
@@ -16062,7 +16065,7 @@
         <v>8971541155</v>
       </c>
     </row>
-    <row r="300" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A300" s="5">
         <v>299</v>
       </c>
@@ -16097,7 +16100,7 @@
         <v>34464</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M300" s="1" t="s">
         <v>755</v>
@@ -16106,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A301" s="5">
         <v>300</v>
       </c>
@@ -16141,7 +16144,7 @@
         <v>33359</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M301" s="1" t="s">
         <v>759</v>
@@ -16150,7 +16153,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="302" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A302" s="5">
         <v>301</v>
       </c>
@@ -16185,7 +16188,7 @@
         <v>32250</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M302" s="1" t="s">
         <v>761</v>
@@ -16194,7 +16197,7 @@
         <v>85279433454</v>
       </c>
     </row>
-    <row r="303" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A303" s="5">
         <v>302</v>
       </c>
@@ -16229,7 +16232,7 @@
         <v>31457</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M303" s="1" t="s">
         <v>763</v>
@@ -16238,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A304" s="5">
         <v>303</v>
       </c>
@@ -16273,7 +16276,7 @@
         <v>33689</v>
       </c>
       <c r="L304" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M304" s="1" t="s">
         <v>765</v>
@@ -16282,7 +16285,7 @@
         <v>81239626768</v>
       </c>
     </row>
-    <row r="305" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A305" s="5">
         <v>304</v>
       </c>
@@ -16317,7 +16320,7 @@
         <v>34336</v>
       </c>
       <c r="L305" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M305" s="1" t="s">
         <v>767</v>
@@ -16326,7 +16329,7 @@
         <v>82269263896</v>
       </c>
     </row>
-    <row r="306" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="5">
         <v>305</v>
       </c>
@@ -16361,7 +16364,7 @@
         <v>31953</v>
       </c>
       <c r="L306" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M306" s="1" t="s">
         <v>771</v>
@@ -16370,7 +16373,7 @@
         <v>8127131987</v>
       </c>
     </row>
-    <row r="307" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A307" s="5">
         <v>306</v>
       </c>
@@ -16405,7 +16408,7 @@
         <v>33449</v>
       </c>
       <c r="L307" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M307" s="1" t="s">
         <v>773</v>
@@ -16414,7 +16417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A308" s="5">
         <v>307</v>
       </c>
@@ -16449,7 +16452,7 @@
         <v>27057</v>
       </c>
       <c r="L308" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M308" s="1" t="s">
         <v>775</v>
@@ -16458,7 +16461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A309" s="5">
         <v>308</v>
       </c>
@@ -16493,7 +16496,7 @@
         <v>34135</v>
       </c>
       <c r="L309" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M309" s="1" t="s">
         <v>777</v>
@@ -16502,7 +16505,7 @@
         <v>85265759669</v>
       </c>
     </row>
-    <row r="310" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A310" s="5">
         <v>309</v>
       </c>
@@ -16537,7 +16540,7 @@
         <v>33695</v>
       </c>
       <c r="L310" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M310" s="1" t="s">
         <v>779</v>
@@ -16546,7 +16549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="5">
         <v>310</v>
       </c>
@@ -16581,7 +16584,7 @@
         <v>31093</v>
       </c>
       <c r="L311" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M311" s="1" t="s">
         <v>783</v>
@@ -16590,7 +16593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A312" s="5">
         <v>311</v>
       </c>
@@ -16625,7 +16628,7 @@
         <v>32056</v>
       </c>
       <c r="L312" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M312" s="1" t="s">
         <v>785</v>
@@ -16634,7 +16637,7 @@
         <v>85381381330</v>
       </c>
     </row>
-    <row r="313" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="5">
         <v>312</v>
       </c>
@@ -16669,7 +16672,7 @@
         <v>27990</v>
       </c>
       <c r="L313" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M313" s="1" t="s">
         <v>787</v>
@@ -16678,7 +16681,7 @@
         <v>628195000000</v>
       </c>
     </row>
-    <row r="314" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A314" s="5">
         <v>313</v>
       </c>
@@ -16713,7 +16716,7 @@
         <v>33195</v>
       </c>
       <c r="L314" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M314" s="1" t="s">
         <v>789</v>
@@ -16722,7 +16725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A315" s="5">
         <v>314</v>
       </c>
@@ -16757,7 +16760,7 @@
         <v>26734</v>
       </c>
       <c r="L315" s="6" t="s">
-        <v>16</v>
+        <v>819</v>
       </c>
       <c r="M315" s="1" t="s">
         <v>791</v>
